--- a/energy_data/xlsx_data/production_data.xlsx
+++ b/energy_data/xlsx_data/production_data.xlsx
@@ -28,9 +28,6 @@
     <t>LPG</t>
   </si>
   <si>
-    <t>N_Gas</t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>kwH</t>
   </si>
   <si>
-    <t>liters</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -89,6 +83,12 @@
   </si>
   <si>
     <t>Production Data</t>
+  </si>
+  <si>
+    <t>gallons</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -505,31 +505,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -551,10 +551,10 @@
       <c r="D3" s="4"/>
       <c r="F3" s="4"/>
       <c r="H3" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -562,26 +562,26 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6">
         <v>82999</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4">
         <f>1.6*10^12</f>
         <v>1600000000000</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -589,26 +589,26 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>90.48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
         <f>490399</f>
         <v>490399</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -616,18 +616,18 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="4"/>
       <c r="H6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -635,26 +635,26 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
         <v>1432.92</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4">
         <f>76570*1000*42*3.78</f>
         <v>12156253200</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
